--- a/biology/Zoologie/Euroscaptor/Euroscaptor.xlsx
+++ b/biology/Zoologie/Euroscaptor/Euroscaptor.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Taupes d'Asie
-Les Taupes d'Asie (Euroscaptor) sont un genre de Mammifères de la famille des Talpidés (Talpidae). Les différentes espèces sont toutes des taupes asiatiques[1].
+Les Taupes d'Asie (Euroscaptor) sont un genre de Mammifères de la famille des Talpidés (Talpidae). Les différentes espèces sont toutes des taupes asiatiques.
 </t>
         </is>
       </c>
@@ -512,14 +524,51 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Ce genre a été décrit pour la première fois en 1940 par le zoologiste américain Gerrit Smith Miller, Jr (1869-1956).
-Classification plus détaillée selon le Système d'information taxonomique intégré (SITI ou ITIS en anglais) : Règne : Animalia ; sous-règne : Bilateria ; infra-règne : Deuterostomia ; Embranchement : Chordata ; Sous-embranchement : Vertebrata ; infra-embranchement : Gnathostomata ; super-classe : Tetrapoda ; Classe : Mammalia ; Sous-classe : Theria ; infra-classe : Eutheria ; ordre : Soricomorpha ; famille des Talpidae ; sous-famille des Talpinae ; tribu des Talpini[2].
-Traditionnellement, les espèces de la famille des Talpidae sont classées dans l'ordre des Insectivora, un regroupement qui est progressivement abandonné au XXIe siècle[3].
-Liste d'espèces
-Espèce actuelles :
-Selon Mammal Species of the World (version 3, 2005)  (25 mai 2015)[3], ITIS      (25 mai 2015)[2], Catalogue of Life                                   (25 mai 2015)[4]:
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre a été décrit pour la première fois en 1940 par le zoologiste américain Gerrit Smith Miller, Jr (1869-1956).
+Classification plus détaillée selon le Système d'information taxonomique intégré (SITI ou ITIS en anglais) : Règne : Animalia ; sous-règne : Bilateria ; infra-règne : Deuterostomia ; Embranchement : Chordata ; Sous-embranchement : Vertebrata ; infra-embranchement : Gnathostomata ; super-classe : Tetrapoda ; Classe : Mammalia ; Sous-classe : Theria ; infra-classe : Eutheria ; ordre : Soricomorpha ; famille des Talpidae ; sous-famille des Talpinae ; tribu des Talpini.
+Traditionnellement, les espèces de la famille des Talpidae sont classées dans l'ordre des Insectivora, un regroupement qui est progressivement abandonné au XXIe siècle.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Euroscaptor</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euroscaptor</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Espèce actuelles :
+Selon Mammal Species of the World (version 3, 2005)  (25 mai 2015), ITIS      (25 mai 2015), Catalogue of Life                                   (25 mai 2015):
 Euroscaptor grandis Miller, 1940
 Euroscaptor klossi (Thomas, 1929)
 Euroscaptor longirostris (Milne-Edwards, 1870)
